--- a/finetuning/it_datasets/qa_dataset/qa_it_medjez el bab_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_medjez el bab_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,12 +676,61 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Cafe Le Boncoin located at MJ33+M8G Cafe Le Boncoin. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-le-boncoin-1608029509315556/ or call them at 28 456 252.</t>
+          <t>Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café with a 4.7 rating in Medjez el Bab, perfect for café lovers with a wide selection of café options to choose from?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Visit the Medjez el Bab Temple for a serene and spiritual experience, immersing yourself in its rich history and culture.
+**Mid-Morning:**
+* Explore Marche Medjez el bab for a taste of local flavors and fresh produce.
+* Try local cuisine at Restaurant hassen mT`m Hsn, known for its exceptional food and high ratings.
+**Midday:**
+* Take a guided tour of Louage station, learning about its vital transport services and experiencing the daily rhythm of the town.
+**Afternoon:**
+* Enjoy scenic views and relax in the tranquil outdoor space around the Medjez el Bab Temple.
+**Evening:**
+* Immerse yourself in the vibrant atmosphere of Cafe Madih El Hajj, savoring local coffee and pastries while interacting with locals.
+**Night:**
+* Engage in outdoor activities at the nearby park, enjoying the cool evening breeze and connecting with nature.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,14 +832,53 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Cafe Madih El Hajj located at JJWC+R4X Cafe Madih El Hajj, Medjez el Bab. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, call them at 99 461 123.</t>
+          <t>Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Medjez el Bab can you find a highly-rated Cafe with a diverse selection of Cafe options that promises a delightful experience for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Marche Medjez el bab
+Mid-Morning: Trying local cuisine at Chappati Rchid
+Midday: Visiting Medjez el Bab (temple parsi)
+Afternoon: Relaxing with coffee at Cafe Le Boncoin
+Evening: Enjoying scenic views at Louage station
+Night: Experiencing cultural immersion at the cultural site of Medjez el Bab</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.
+Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.
+Medjez el Bab is a temple parsi located in JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab, Tunisia. It is rated 5.0 stars based on 2 reviews and is owned by Medjez el Bab (proprietaire). Medjez el Bab is located at coordinates (36.37051, 37.5157) and its link is https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,12 +980,53 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a great place to have a coffee, check out cafe Helmia chez rached located at JJX7+3H5 cafe Helmia chez rached, Medjez el Bab. This top-rated cafe is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.6494269, 9.6094964.</t>
+          <t>Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Medjez el Bab can you find a highly rated cafe (4.5 stars or above) perfect for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Exploring Discover Medjez el Bab, a renowned Temple parsi
+Mid-Morning: Trying local cuisine at Chappati Rchid
+Midday: Shopping at Marche Medjez el bab
+Afternoon: Enjoying scenic views at Cafe Madih El Hajj overlooking medjez el bab
+Evening: Participating in a guided tour of Louage station, a transport service
+Night: Relaxing with a spa treatment at a local hotel</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.
+Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.
+Discover Medjez el Bab, a renowned Temple parsi in Majaz Al Bab, Tunisia. Located at Rue Union du Grand Maghreb, JJX8+282, it proudly boasts a perfect 5.0 rating based on numerous positive reviews.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,14 +1128,53 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a top-rated restaurant, check out Chappati Rchid located at JJWG+729 Chappati Rchid, Medjez el Bab. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, call them at 40 888 523.</t>
+          <t>Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Medjez el Bab known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Explore Medjez el Bab temple (Medjez el Bab)
+Mid-Morning: Take a guided tour of the Louage station (Louage station)
+Midday: Try local cuisine at Restaurant hassen mT`m Hsn (Restaurant hassen mT`m Hsn)
+Afternoon: Relax with a traditional Hammam experience at a local spa
+Evening: Shop for souvenirs at Marche Medjez el bab (Marche Medjez el bab)
+Night: Enjoy scenic views at Cafe Madih El Hajj while sipping on traditional mint tea</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1268,53 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Immerse yourself in the ancient history of Medjez el Bab, a captivating Temple Parsi located in the heart of the city. This top-rated destination boasts a remarkable 5.0 rating, making it a must-visit for any history buff or traveler seeking cultural enchantment. At Medjez el Bab, you can explore the rich tapestry of Parsi traditions and marvel at the intricate architecture and fascinating artifacts that adorn its hallowed halls. Find your way there using these coordinates: Latitude: 36.37051, Longitude: 37.5157. For further information, you can check their website or contact them directly.</t>
+          <t>Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Which top-rated historical destination in the heart of Medjez el Bab invites you to delve into the ancient tapestry of Parsi traditions, boasting an impressive 5.0 rating and providing insightful coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore the historical temple Medjez el Bab.
+Mid-Morning: Visit the bustling Marche Medjez el bab for local shopping and street snacks.
+Midday: Try traditional Tunisian cuisine at Restaurant hassen mT`m Hsn, a highly-rated local spot.
+Afternoon: Enjoy a relaxing stroll through Cafe Helmia chez rached, known for its cozy ambiance and aromatic beverages.
+Evening: Participate in a guided tour of Louage station to learn about the local transport system.
+Night: Experience the vibrant local culture by engaging in a traditional music or dance performance at a cultural center.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1408,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates:36.37051, 37.5157.</t>
+          <t>Medjez el Bab is a temple parsi located in JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab, Tunisia. It is rated 5.0 stars based on 2 reviews and is owned by Medjez el Bab (proprietaire). Medjez el Bab is located at coordinates (36.37051, 37.5157) and its link is https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>If you're seeking a memorable experience at a top-rated destination for Temple parsi enthusiasts, where can you go in Medjez el Bab?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Medjez el Bab Temple, a sacred and historically significant Parsi temple.
+**Mid-Morning:**
+* Visit Marche Medjez el bab for a glimpse into the local culinary scene and to purchase fresh produce.
+**Midday:**
+* Try the delicious chappatis and other authentic dishes at Chappati Rchid, a highly-rated restaurant.
+**Afternoon:**
+* Explore the picturesque streets and surroundings of Cafe Madih El Hajj, a cozy cafe with positive reviews.
+**Evening:**
+* Participate in a traditional Tunisian cooking class to learn about local cuisine and culinary practices.
+**Night:**
+* Relax and unwind with a leisurely walk along the scenic Louage station, enjoying the serene atmosphere and views.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.
+Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.
+**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1295,14 +1555,53 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated spot is perfect for Temple parsi lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.37051, 37.5157.</t>
+          <t>Medfez el Bab is a town located in Tunisia, at coordinates (36.37051, 37.5157). Its main category is Parsi Temple.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Question: For those who enjoy visiting Temple parsi, what top-rated destination in Medjez el Bab is worth considering, according to the given description?</t>
+          <t>Day Plan:
+Morning: Exploring Medjez el Bab Temple
+Mid-Morning: Trying local cuisine at Restaurant hassen mT`m Hsn
+Midday: Visiting Marche Medjez el bab for local produce
+Afternoon: Relaxing with a coffee at Cafe Helmia chez rached
+Evening: Taking a guided tour of Louage station
+Night: Enjoying scenic views at Plage de Medjez el Bab</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1396,13 +1695,53 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medjez el Bab is a historical and religious site, located in 36.37051, 37.5157. It's a 5-star rated temple, owned by Medjez el Bab (proprietaire).</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Medjez el Bab that is highly recommended for Temple parsi enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Medjez el Bab Temple
+Mid-Morning: Enjoying coffee at Cafe Le Boncoin
+Midday: Trying local cuisine at Chappati Rchid
+Afternoon: Shopping at Marche Medjez el bab
+Evening: Participating in a guided tour of Louage station
+Night: Relaxing at a hotel spa with a massage</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.
+Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.
+Medjez el Bab is a temple parsi located in the city of Majaz Al Bab in Tunisia. It is not far from the city of Tunis and is a popular destination for tourists and locals alike.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1843,53 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Marche Medjez el bab located at JJX5+HGX Marche Medjez el bab, Majaz Al Bab. This top-rated destination is perfect for Marche alimentaire lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.64964, 9.61231. For more details, visit their website at https://www.google.com/maps/place/March%C3%A9+Medjez+el+bab/data=!4m7!3m6!1s0x12fcc134ff0e589d:0xea69bdb1bf12187d!8m2!3d36.648985!4d9.6088688!16s%2Fg%2F1pv2k5cl_!19sChIJnVgO_zTB_BIRfRgSv7G9aeo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Medjez el Bab can you find a top-rated Marche alimentaire destination with a rating of 4.0 and a wide range of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the ancient temple at Medjez el Bab
+Mid-Morning: Visit Marche Medjez el bab for local products
+Midday: Try local cuisine at Restaurant hassen mT`m Hsn
+Afternoon: Relax and enjoy the coffee creations at Cafe Le Boncoin
+Evening: Take a guided tour of Louage station
+Night: Experience traditional music at a local venue</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+Medjez el Bab is a temple parsi located in JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab, Tunisia. It is rated 5.0 stars based on 2 reviews and is owned by Medjez el Bab (proprietaire). Medjez el Bab is located at coordinates (36.37051, 37.5157) and its link is https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1603,14 +1983,54 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover Medjez el Bab, a renowned Temple parsi in Majaz Al Bab, Tunisia. Located at Rue Union du Grand Maghreb, JJX8+282, it proudly boasts a perfect 5.0 rating based on numerous positive reviews.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Medjez el Bab offers a selection of Temple parsi and boasts a perfect 5.0 rating with a convenient location at JJX8+282 Rue Union du Grand Maghreb?</t>
+          <t>Day Plan:
+Morning: Explore the Medjez el Bab Temple, a renowned Parsi temple with beautiful architecture and a serene atmosphere.
+Mid-Morning: Try local cuisine at Chappati Rchid, a popular restaurant serving a variety of dishes and receiving positive reviews for its food and service.
+Midday: Visit the Marche Medjez el bab, a local market offering a wide range of products.
+Afternoon: Engage in outdoor activities like hiking or cycling in the picturesque surroundings of Medjez el Bab.
+Evening: Experience a guided tour of the Cafe Madih El Hajj, a local cafe with a cozy ambiance and a rating of 4.0 out of 6 reviews.
+Night: Relax and unwind with a traditional Hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Madih El Hajj is a cafe located in medjez el bab, Tunisia, with a rating of 4.0 out of 6 reviews.
+Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.
+**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1704,16 +2124,54 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something fun to do, check out Medjez el Bab located at JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab. 
-This top-rated destination is perfect for Temple parsi lovers and offers a range of Temple parsi to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.37051, 37.5157. 
-For more details, visit their website at https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Medjez el Bab that offers a variety of Temple parsi and boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the Parsi Temple at Medfez el Bab
+Mid-Morning: Trying local cuisine at Chappati Rchid
+Midday: Enjoying a coffee and relaxing ambiance at Cafe Le Boncoin
+Afternoon: Shopping local goods and produce at Marche Medjez el bab
+Evening: Experiencing cultural immersion at Medjez el Bab and visiting landmarks
+Night: Taking a guided tour of Louage station for an insight into local transport</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Medjez el Bab at the coordinates (36.6494269, 9.6094964), Cafe Le Boncoin is a go-to spot for coffee lovers. Famous for its cozy interior, excellent service, and fantastic coffee creations, this popular cafe has an impressive rating of 4.7 stars from 6 reviews on Google. With a featured image that showcases its elegant ambiance, Cafe Le Boncoin is easily accessible via its provided website and phone number.
+Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.
+Medfez el Bab is a town located in Tunisia, at coordinates (36.37051, 37.5157). Its main category is Parsi Temple.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2269,59 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for a top-rated Restaurant, check out Restaurant hassen mT`m Hsn located at JJWJ+FH2 Restaurant hassen mT`m Hsn, av.habib bourguiba, Medjez el Bab. This highly rated destination with a score of 4.5 is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. For more details, visit their website at  or call them at .</t>
+          <t>Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant with a score of 4.5 in Medjez el Bab?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Medjez el Bab city center and its historic landmarks.
+**Mid-Morning:**
+- Visit Medjez el Bab temple parsi for its cultural significance.
+**Midday:**
+- Savor local cuisine at Chappati Rchid, known for its delicious dishes.
+**Afternoon:**
+- Enjoy shopping for fresh produce and local products at Marche Medjez el bab.
+**Evening:**
+- Take a peaceful stroll through the scenic gardens of [Park Name] for relaxation.
+**Night:**
+- Experience the vibrant nightlife at Cafe Helmia chez rached for a cozy ambiance and beverages.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).
+Chappati Rchid is a restaurant located in Medjez el Bab, Tunisia. It serves a variety of dishes, and is open from 11:00-21:30. Chappati Rchid has received positive reviews from customers, who praise its food and service.
+Medjez el Bab is a temple parsi located in JJX8+282 Medjez el Bab, Rue Union du Grand Maghreb, Majaz Al Bab, Tunisia. It is rated 5.0 stars based on 2 reviews and is owned by Medjez el Bab (proprietaire). Medjez el Bab is located at coordinates (36.37051, 37.5157) and its link is https://www.google.com/maps/place/Medjez+el+Bab/data=!4m7!3m6!1s0x12fcc1cd454d66f5:0xb44747524f7345be!8m2!3d36.6475125!4d9.6157656!16s%2Fg%2F11t2tdh_73!19sChIJ9WZNRc3B_BIRvkVzT1JHR7Q?authuser=0&amp;hl=fr&amp;rclk=1.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1918,12 +2423,54 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in medjez el bab and looking for something delicious, check out Chappati Rchid located at JJWG+729 Chappati Rchid, Medjez el Bab. This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-21:30, but closed on []. To get there, use these GPS coordinates: 36.6494269, 9.6094964. For more details, visit their website at or call them at 40 888 523.</t>
+          <t>Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>If you're searching for a highly acclaimed dining experience in Medjez el Bab, with a rating of 5.0 and a diverse selection of restaurant categories, where can you go?</t>
+          <t>Day Plan:
+Morning: Exploring Medjez el Bab Temple
+Mid-Morning: Trying local cuisine at Restaurant hassen mT`m Hsn
+Midday: Visiting Marche Medjez el bab
+Afternoon: Enjoying scenic views at Louage station
+Evening: Relaxing with a massage at a local spa
+Night: Participating in a traditional music and dance performance at a local cultural center</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).
+Restaurant hassen mT`m Hsn is a restaurant in medjez el bab. Its coordinates are (36.647857008387, 9.605168258846). It is a popular place with a rating of 4.5 based on 11 reviews.
+**Medjez el Bab Temple**
+Visit the Medjez el Bab Temple, a renowned Parsi temple located in Majaz Al Bab, Medjez el Bab, Tunisia. This sacred site holds a special significance for the Parsi community and is known for its beautiful architecture and serene atmosphere. Enjoy its peaceful surroundings and experience the rich history and culture of this ancient religion.
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2025,15 +2572,56 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Get ready for a convenient travel experience in medjez el bab! Visit Louage station, located at JJX4+88X Louage station, P5, Medjez el Bab. 
-This highly rated spot has a 5.0 rating, making it a top choice for travelers seeking reliable transportation services. 
-Operating from 05:00-17:00, they provide a range of options to suit your travel needs. 
-For further details or to make inquiries, explore their website at https://www.google.com/maps/place/Louage+station/data=!4m7!3m6!1s0x12fcc190d996c901:0x2200d9ace13e99e7!8m2!3d36.6483627!4d9.6058468!16s%2Fg%2F11j4v0_c1k!19sChIJAcmW2ZDB_BIR55k-4azZACI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Louage station with a convenient location and extended operating hours in Medjez el Bab?</t>
+          <t>Day Plan:
+Morning: Exploring Medjez el Bab (historical and religious site)
+Mid-Morning: Trying local cuisine at Chappati Rchid (restaurant)
+Midday: Visiting Marche Medjez el bab (market)
+Afternoon: Participating in outdoor activities at Louage station (transport service)
+Evening: Relaxing with a drink at Cafe Helmia chez rached (cafe)
+Night: Enjoying scenic views at Marche Medjez el bab (market)</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Helmia chez rached is a highly-rated cafe located at JJX7+3H5 in Medjez el Bab, Tunisia. The cafe offers a cozy ambiance and a wide selection of beverages and snacks, making it a popular destination for locals and visitors alike. With a 5.0 rating based on 3 reviews, Cafe Helmia chez rached is known for its excellent service and friendly staff. The cafe is open daily from 5:00 AM to midnight and is easily accessible with coordinates (36.6494269, 9.6094964).
+Chappati Rchid is a 5-star rated restaurant located in Medjez el Bab, Tunisia. It is open from 11:00 to 21:30 every day and offers a variety of dining options. The restaurant is known for its delicious chappatis, a type of flatbread that is popular in India and Bangladesh. Chappati Rchid also offers a variety of other dishes, including curries, biryanis, and kebabs.
+Medjez el Bab is a historical and religious site, located in 36.37051, 37.5157. It's a 5-star rated temple, owned by Medjez el Bab (proprietaire).
+Marche Medjez el bab is a Marche alimentaire located in medjez el bab with coordinates (36.64964, 9.61231).
+Louage station is a transport service located in medjez el bab, Tunisia. 
+The station offers a range of transport services to its customers. 
+It is located at the following coordinates: (36.6488422, 9.6077189). 
+The station is open from 05:00 to 17:00 and is closed on all public holidays.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
